--- a/times.xlsx
+++ b/times.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epak\Desktop\cs325\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/CS325-Group29-TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26370" windowHeight="14235" xr2:uid="{EF2B2832-FF12-43E8-8284-D6DA5B66F98A}"/>
+    <workbookView xWindow="-27420" yWindow="9400" windowWidth="26380" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Test case</t>
   </si>
@@ -57,12 +63,48 @@
   </si>
   <si>
     <t>0.0577s</t>
+  </si>
+  <si>
+    <t>1739 microseconds</t>
+  </si>
+  <si>
+    <t>738 microseconds</t>
+  </si>
+  <si>
+    <t>tsp example txt files</t>
+  </si>
+  <si>
+    <t>min dist</t>
+  </si>
+  <si>
+    <t>8577 microseconds</t>
+  </si>
+  <si>
+    <t>31919 microseconds</t>
+  </si>
+  <si>
+    <t>143464 microseconds</t>
+  </si>
+  <si>
+    <t>695625 microseconds</t>
+  </si>
+  <si>
+    <t>4907969 microseconds</t>
+  </si>
+  <si>
+    <t>1314 microseconds</t>
+  </si>
+  <si>
+    <t>13584 microseconds</t>
+  </si>
+  <si>
+    <t>47477525 microseconds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,13 +154,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7C0C60BE-AE2E-4E0B-87C8-875F7CD828D2}" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{11AF2653-5D6F-459F-BFCE-8CF034E06C25}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D8" totalsRowShown="0">
+  <autoFilter ref="A1:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5900FB75-27D3-4C72-8A52-8649B7F66D0D}" name="Test case"/>
-    <tableColumn id="2" xr3:uid="{748BD152-E44E-48FD-8CBC-648A5F529296}" name="size"/>
-    <tableColumn id="3" xr3:uid="{F42304A0-2099-42DE-816C-5ABFD68A516D}" name="Min distance"/>
-    <tableColumn id="4" xr3:uid="{2B9C4313-8952-4478-BB6F-4B72F7D97A4D}" name="time"/>
+    <tableColumn id="1" name="Test case"/>
+    <tableColumn id="2" name="size"/>
+    <tableColumn id="3" name="Min distance"/>
+    <tableColumn id="4" name="time"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -420,20 +462,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80614163-448D-4499-B04B-B9E382151E20}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -460,8 +502,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -474,8 +519,11 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,8 +536,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -502,8 +553,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -516,8 +570,11 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -530,8 +587,11 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -543,6 +603,53 @@
       </c>
       <c r="D8" t="s">
         <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>131471</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2952</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>1806314</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/times.xlsx
+++ b/times.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Test case</t>
   </si>
@@ -65,40 +65,43 @@
     <t>0.0577s</t>
   </si>
   <si>
-    <t>1739 microseconds</t>
-  </si>
-  <si>
-    <t>738 microseconds</t>
-  </si>
-  <si>
     <t>tsp example txt files</t>
   </si>
   <si>
     <t>min dist</t>
   </si>
   <si>
-    <t>8577 microseconds</t>
-  </si>
-  <si>
-    <t>31919 microseconds</t>
-  </si>
-  <si>
-    <t>143464 microseconds</t>
-  </si>
-  <si>
-    <t>695625 microseconds</t>
-  </si>
-  <si>
-    <t>4907969 microseconds</t>
-  </si>
-  <si>
-    <t>1314 microseconds</t>
-  </si>
-  <si>
-    <t>13584 microseconds</t>
-  </si>
-  <si>
-    <t>47477525 microseconds</t>
+    <t>opt</t>
+  </si>
+  <si>
+    <t>6530 microseconds</t>
+  </si>
+  <si>
+    <t>22675 microseconds</t>
+  </si>
+  <si>
+    <t>58542190 microseconds</t>
+  </si>
+  <si>
+    <t>5387 microseconds</t>
+  </si>
+  <si>
+    <t>6425 microseconds</t>
+  </si>
+  <si>
+    <t>15760 microseconds</t>
+  </si>
+  <si>
+    <t>47382 microseconds</t>
+  </si>
+  <si>
+    <t>185257 microseconds</t>
+  </si>
+  <si>
+    <t>870871 microseconds</t>
+  </si>
+  <si>
+    <t>6112696 microseconds</t>
   </si>
 </sst>
 </file>
@@ -134,8 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,13 +470,13 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -503,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -520,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -536,8 +540,8 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -553,8 +557,8 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -570,8 +574,8 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -587,8 +591,8 @@
       <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" t="s">
-        <v>18</v>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -604,20 +608,30 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -627,7 +641,14 @@
         <v>131471</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>108159</v>
+      </c>
+      <c r="E12">
+        <f>B12/D12</f>
+        <v>1.2155345371166524</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -638,7 +659,14 @@
         <v>2952</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2579</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E14" si="0">B13/D13</f>
+        <v>1.1446297014346647</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -649,7 +677,14 @@
         <v>1806314</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>1573084</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1482629026803399</v>
       </c>
     </row>
   </sheetData>
